--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hesco2020-my.sharepoint.com/personal/m_ali_hesco_es/Documents/2024/hesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_62AD92BF1F7F7A8F6E38F4F7495DCE3A8747D2B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320C1F9A-9969-4B45-A05F-10E42E1EEA34}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_74A5B5D518513A8F6E38F4F7495DCE3A8747AA79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D454102-43C9-4389-A212-6501B9364F54}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Project Code</t>
   </si>
   <si>
-    <t>B1380</t>
-  </si>
-  <si>
     <t>C 900</t>
   </si>
   <si>
-    <t>C-1351</t>
-  </si>
-  <si>
     <t>C0000</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>C1400</t>
   </si>
   <si>
-    <t>C1400-Z12</t>
-  </si>
-  <si>
     <t>C1410</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>C900</t>
   </si>
   <si>
-    <t xml:space="preserve">C900 </t>
-  </si>
-  <si>
     <t>C901</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
   </si>
   <si>
     <t>ST515</t>
-  </si>
-  <si>
-    <t>Z12</t>
   </si>
 </sst>
 </file>
@@ -619,15 +604,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,54 +657,126 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>118.5</v>
       </c>
       <c r="D3">
-        <v>77.099999999999994</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>118.5</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -752,7 +808,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -784,7 +840,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -816,7 +872,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -848,273 +904,216 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>76</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>113</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>376</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>56.5</v>
+        <v>332.1</v>
+      </c>
+      <c r="D17">
+        <v>48.33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>376</v>
+        <v>552.1</v>
+      </c>
+      <c r="D19">
+        <v>358.3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>332.1</v>
+        <v>126.5</v>
       </c>
       <c r="D20">
-        <v>48.33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>552.1</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>358.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>126.5</v>
+        <v>129</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>1882.893</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>2485.3002000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>184.3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2101.5</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>1165.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>1882.893</v>
+        <v>100.5</v>
       </c>
       <c r="D27">
-        <v>2221.7002000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>184.3</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>2102</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>1122.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>119.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1122,134 +1121,128 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>100.5</v>
+        <v>102.1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>102.1</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>72.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="D37">
-        <v>72</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>280</v>
+        <v>2471.15</v>
       </c>
       <c r="D41">
-        <v>309</v>
+        <v>1793.7</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
       <c r="D42">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -1257,48 +1250,138 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>63</v>
+        <v>258.5</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D44">
-        <v>66</v>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45">
-        <v>2471.15</v>
-      </c>
-      <c r="D45">
-        <v>1793.7</v>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46">
-        <v>14</v>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47">
-        <v>258.5</v>
-      </c>
-      <c r="D47">
-        <v>98</v>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2073,31 +2156,10 @@
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
+      <c r="C72">
+        <v>44</v>
+      </c>
+      <c r="D72">
         <v>0</v>
       </c>
     </row>
@@ -2105,130 +2167,14 @@
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>44</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77">
+      <c r="C73">
         <v>42</v>
       </c>
-      <c r="D77">
+      <c r="D73">
         <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>